--- a/results/descriptive stats/ADF.xlsx
+++ b/results/descriptive stats/ADF.xlsx
@@ -1,124 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitaetstgallen-my.sharepoint.com/personal/ruben_ernst_student_unisg_ch/Documents/BA/commodities-pricing/results/descriptive stats/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_EEFADB8BC45612624F7206EA26D598C6AB1B342B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DE7E1F7-643F-42E2-B1BE-508D58EA87FC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t xml:space="preserve">commodity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.84548294980663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.83464340171858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dubai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.78268691970241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.5685472221553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US NatGas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.13878462293008*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.01422127993687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">first difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.1403281024603***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.5436273038354***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-11.6862691652897***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.1557488920663***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18.7319292991946***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.7021505392228***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log-return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.5678859631865***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14.1085750786265***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.1356198890712***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.8869329571868***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.0775982755254***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14.277686709967***</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>APSP</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>ADF</t>
+  </si>
+  <si>
+    <t>-2.26891755801677</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>-2.29466929691071</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>-2.2105799439395</t>
+  </si>
+  <si>
+    <t>LNG</t>
+  </si>
+  <si>
+    <t>-1.81015274406529</t>
+  </si>
+  <si>
+    <t>US NatGas</t>
+  </si>
+  <si>
+    <t>-2.84579384771998</t>
+  </si>
+  <si>
+    <t>WTI</t>
+  </si>
+  <si>
+    <t>-2.33659955570727</t>
+  </si>
+  <si>
+    <t>first difference</t>
+  </si>
+  <si>
+    <t>-7.68162119922491***</t>
+  </si>
+  <si>
+    <t>-7.67793519278906***</t>
+  </si>
+  <si>
+    <t>-7.72438808978773***</t>
+  </si>
+  <si>
+    <t>-7.37320284477943***</t>
+  </si>
+  <si>
+    <t>-7.51096071209335***</t>
+  </si>
+  <si>
+    <t>-7.72932819673872***</t>
+  </si>
+  <si>
+    <t>log-return</t>
+  </si>
+  <si>
+    <t>-7.81908780465761***</t>
+  </si>
+  <si>
+    <t>-7.73893037905758***</t>
+  </si>
+  <si>
+    <t>-8.13649725026517***</t>
+  </si>
+  <si>
+    <t>-9.11715160615767***</t>
+  </si>
+  <si>
+    <t>-7.37703645013452***</t>
+  </si>
+  <si>
+    <t>-7.74681755056915***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,6 +161,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -435,14 +451,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -472,11 +493,11 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.642253435292808</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2">
+        <v>0.46350230786382901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -489,11 +510,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.646829304633651</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>0.45263132029858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -506,11 +527,11 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.668762513581524</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4">
+        <v>0.48812928469953798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -523,11 +544,11 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.336894908480707</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5">
+        <v>0.65688582769760695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -540,11 +561,11 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.0985139019268365</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6">
+        <v>0.219946043292754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -557,11 +578,11 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.571021263508932</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7">
+        <v>0.434930639041194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -574,11 +595,11 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -591,11 +612,11 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -608,11 +629,11 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -625,11 +646,11 @@
       <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -642,11 +663,11 @@
       <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -659,11 +680,11 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -676,11 +697,11 @@
       <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -693,11 +714,11 @@
       <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -710,11 +731,11 @@
       <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -727,11 +748,11 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -744,11 +765,11 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -761,12 +782,12 @@
       <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>